--- a/environmental_data/temp_summary_30_5.xlsx
+++ b/environmental_data/temp_summary_30_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch4_AcerCCC/environmental_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_AcerCCC/environmental_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{661683C0-2E69-FD40-B0DE-AD5F671E9582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBB0387-D058-6643-91D9-4E5E70D0C23B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{661683C0-2E69-FD40-B0DE-AD5F671E9582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D3A427-DAEA-6645-B90A-FF054C5B31D3}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{74A0D6DB-6026-BC4D-AFE4-FF1C41940A1C}"/>
+    <workbookView xWindow="50080" yWindow="3820" windowWidth="28040" windowHeight="16140" xr2:uid="{74A0D6DB-6026-BC4D-AFE4-FF1C41940A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Max</t>
   </si>
@@ -57,13 +57,16 @@
   </si>
   <si>
     <t>30.5°C</t>
+  </si>
+  <si>
+    <t>DHW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +86,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -113,8 +123,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -131,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,70 +468,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD8EAA-E402-A04E-AB9D-175E40D90282}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
+        <v>20.049099999999999</v>
+      </c>
+      <c r="C2" s="5">
         <v>31.817299999999999</v>
       </c>
-      <c r="C2" s="3">
-        <v>20.049099999999999</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="E2" s="4">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.80762929999999999</v>
+      </c>
+      <c r="G2" s="5">
         <v>11.7682</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.80762929999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="C3" s="5">
         <v>31.472000000000001</v>
       </c>
-      <c r="C3" s="3">
-        <v>21.568999999999999</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.79891789999999996</v>
+      </c>
+      <c r="G3" s="5">
         <v>9.9030000000000005</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.79891789999999996</v>
-      </c>
-      <c r="F3" s="1">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
